--- a/ZAFRA, REYNANTE.xlsx
+++ b/ZAFRA, REYNANTE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B6181C-4B8C-4165-B015-FF4542BDCF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DEF384-56C5-4963-8C1D-D92C05ACAD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>12/26-29/2022</t>
+  </si>
+  <si>
+    <t>12/24,25/2022</t>
   </si>
 </sst>
 </file>
@@ -699,17 +702,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -719,6 +719,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -734,6 +737,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1030,27 +1054,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1259,15 +1262,15 @@
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{B3FC58E6-3549-497D-90DD-B9A004A3883C}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{F13034DC-DFEB-4800-AA3D-7D0250DA0323}" name="EARNED " dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{F13034DC-DFEB-4800-AA3D-7D0250DA0323}" name="EARNED " dataDxfId="0">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2294A9B9-0482-4ED2-A7FA-3262B8B3AE95}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{977CB9F5-99F4-44EB-8561-71045ED46125}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{2294A9B9-0482-4ED2-A7FA-3262B8B3AE95}" name="Absence Undertime  W/ Pay" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{977CB9F5-99F4-44EB-8561-71045ED46125}" name="BALANCE " dataDxfId="18">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CC0A816-4C99-45C0-A823-B30501F61873}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{DF3FE9A5-E8BF-4095-ACCC-615EFD728BA4}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{2CC0A816-4C99-45C0-A823-B30501F61873}" name="Absence Undertime  W/O Pay" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{DF3FE9A5-E8BF-4095-ACCC-615EFD728BA4}" name="REMARKS" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1279,25 +1282,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K85" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K85" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="7">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="3">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1611,9 +1614,9 @@
   <dimension ref="A2:K82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1643,14 +1646,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -1661,16 +1664,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40360</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -1683,14 +1686,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1716,18 +1719,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1784,7 +1787,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3143,7 +3146,9 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C76" s="13"/>
       <c r="D76" s="37"/>
       <c r="E76" s="9"/>
@@ -3152,10 +3157,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H76" s="37"/>
+      <c r="H76" s="37">
+        <v>2</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38"/>
@@ -3255,17 +3264,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{0DF9B5DA-6045-4BC9-B215-FE176553DB96}">
@@ -3303,7 +3312,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3333,14 +3342,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3351,16 +3360,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40360</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3373,14 +3382,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3406,18 +3415,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4996,8 +5005,12 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="38"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="38">
+        <v>44896</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C78" s="13"/>
       <c r="D78" s="37"/>
       <c r="E78" s="9"/>
@@ -5009,7 +5022,9 @@
       <c r="H78" s="37"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38"/>

--- a/ZAFRA, REYNANTE.xlsx
+++ b/ZAFRA, REYNANTE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DEF384-56C5-4963-8C1D-D92C05ACAD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,25 +26,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -306,12 +297,21 @@
   </si>
   <si>
     <t>12/24,25/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>1/10,11/2023</t>
+  </si>
+  <si>
+    <t>2/9,10/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -702,14 +702,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -719,9 +722,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,27 +737,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -985,7 +964,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1054,6 +1032,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1206,7 +1205,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1252,25 +1250,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E86E1839-A744-486C-8B35-14976ED23449}" name="Table13" displayName="Table13" ref="A8:K82" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K85" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7DE3E6E2-8D9B-4937-A1F3-C3F422F7D6F7}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{1F8B0A2B-1A4D-435F-9129-30D7D32288C8}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{40FE9D5D-6934-4234-916F-144A0D378A56}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{A55AC24C-FBA2-45EF-99BD-D4612175614A}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{BE2B7810-93D0-4E2D-BB86-8D7776D7FD15}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B3FC58E6-3549-497D-90DD-B9A004A3883C}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{F13034DC-DFEB-4800-AA3D-7D0250DA0323}" name="EARNED " dataDxfId="0">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2294A9B9-0482-4ED2-A7FA-3262B8B3AE95}" name="Absence Undertime  W/ Pay" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{977CB9F5-99F4-44EB-8561-71045ED46125}" name="BALANCE " dataDxfId="18">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CC0A816-4C99-45C0-A823-B30501F61873}" name="Absence Undertime  W/O Pay" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{DF3FE9A5-E8BF-4095-ACCC-615EFD728BA4}" name="REMARKS" dataDxfId="16"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1282,25 +1280,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K85" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K85" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="7">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="5">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="3">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1607,34 +1605,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456A62A9-DDCB-4BE9-BA31-0A886AD67AF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K82"/>
+  <dimension ref="A2:K85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1646,16 +1644,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1664,18 +1662,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40360</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1686,16 +1684,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1703,7 +1701,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1716,24 +1714,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1777,7 +1775,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51</v>
+        <v>53.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1787,12 +1785,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>66</v>
+        <v>63.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>43</v>
       </c>
@@ -1814,7 +1812,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1840,7 +1838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1860,7 +1858,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1880,7 +1878,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>43191</v>
       </c>
@@ -1900,7 +1898,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="46"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>43221</v>
       </c>
@@ -1920,7 +1918,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="45"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>43252</v>
       </c>
@@ -1940,7 +1938,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>43282</v>
       </c>
@@ -1960,7 +1958,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>43313</v>
       </c>
@@ -1980,7 +1978,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="45"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>43344</v>
       </c>
@@ -2000,7 +1998,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>43374</v>
       </c>
@@ -2020,7 +2018,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>43405</v>
       </c>
@@ -2040,7 +2038,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="45"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -2060,7 +2058,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="47"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>55</v>
       </c>
@@ -2078,7 +2076,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>43466</v>
       </c>
@@ -2098,7 +2096,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>43497</v>
       </c>
@@ -2118,7 +2116,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>43525</v>
       </c>
@@ -2138,7 +2136,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43556</v>
       </c>
@@ -2158,7 +2156,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="45"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>43586</v>
       </c>
@@ -2178,7 +2176,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>43617</v>
       </c>
@@ -2198,7 +2196,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="45"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43647</v>
       </c>
@@ -2218,7 +2216,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>43678</v>
       </c>
@@ -2238,7 +2236,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="45"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43709</v>
       </c>
@@ -2258,7 +2256,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>43739</v>
       </c>
@@ -2278,7 +2276,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="45"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>43770</v>
       </c>
@@ -2298,7 +2296,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>43800</v>
       </c>
@@ -2322,7 +2320,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="45"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>61</v>
       </c>
@@ -2340,7 +2338,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>43831</v>
       </c>
@@ -2360,7 +2358,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>43862</v>
       </c>
@@ -2380,7 +2378,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="45"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>43891</v>
       </c>
@@ -2400,7 +2398,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>43922</v>
       </c>
@@ -2420,7 +2418,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>43952</v>
       </c>
@@ -2440,7 +2438,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>43983</v>
       </c>
@@ -2460,7 +2458,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>44013</v>
       </c>
@@ -2480,7 +2478,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>44044</v>
       </c>
@@ -2500,7 +2498,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="45"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>44075</v>
       </c>
@@ -2520,7 +2518,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>44105</v>
       </c>
@@ -2540,7 +2538,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="45"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>44136</v>
       </c>
@@ -2560,7 +2558,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>44166</v>
       </c>
@@ -2584,7 +2582,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>69</v>
       </c>
@@ -2602,7 +2600,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>44197</v>
       </c>
@@ -2622,7 +2620,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>44228</v>
       </c>
@@ -2642,7 +2640,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>44256</v>
       </c>
@@ -2662,7 +2660,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>44287</v>
       </c>
@@ -2682,7 +2680,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>44317</v>
       </c>
@@ -2702,7 +2700,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>44348</v>
       </c>
@@ -2722,7 +2720,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -2742,7 +2740,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="45"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>44409</v>
       </c>
@@ -2762,7 +2760,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>44440</v>
       </c>
@@ -2782,7 +2780,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="45"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>44470</v>
       </c>
@@ -2802,7 +2800,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="45"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>44501</v>
       </c>
@@ -2822,7 +2820,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="45"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>44531</v>
       </c>
@@ -2846,7 +2844,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
         <v>74</v>
       </c>
@@ -2864,7 +2862,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>44562</v>
       </c>
@@ -2884,7 +2882,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>44593</v>
       </c>
@@ -2904,7 +2902,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>44621</v>
       </c>
@@ -2924,7 +2922,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>44652</v>
       </c>
@@ -2944,7 +2942,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="45"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <v>44682</v>
       </c>
@@ -2964,7 +2962,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="45"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>44713</v>
       </c>
@@ -2984,7 +2982,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>44743</v>
       </c>
@@ -3004,7 +3002,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>44774</v>
       </c>
@@ -3024,7 +3022,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>44805</v>
       </c>
@@ -3050,7 +3048,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="20" t="s">
         <v>52</v>
@@ -3072,7 +3070,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>44835</v>
       </c>
@@ -3092,7 +3090,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>44866</v>
       </c>
@@ -3118,7 +3116,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>44896</v>
       </c>
@@ -3144,7 +3142,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="20" t="s">
         <v>52</v>
@@ -3166,9 +3164,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C77" s="13"/>
       <c r="D77" s="37"/>
       <c r="E77" s="9"/>
@@ -3177,14 +3177,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="37"/>
+      <c r="H77" s="37">
+        <v>1</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="45">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C78" s="13"/>
       <c r="D78" s="37"/>
       <c r="E78" s="9"/>
@@ -3193,13 +3199,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H78" s="37"/>
+      <c r="H78" s="37">
+        <v>1</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="38"/>
+      <c r="K78" s="45">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="44" t="s">
+        <v>87</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="37"/>
@@ -3214,25 +3226,37 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="38"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="38">
+        <v>44927</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="37"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="37"/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="37">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="45">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C81" s="13"/>
       <c r="D81" s="37"/>
       <c r="E81" s="9"/>
@@ -3241,51 +3265,107 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="37"/>
+      <c r="H81" s="37">
+        <v>2</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="41"/>
+      <c r="K81" s="45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="38">
+        <v>44958</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D82" s="37"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="41"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="37"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="15"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="20"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="38"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="37"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="20"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="38"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="37"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="20"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="39"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="41"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{0DF9B5DA-6045-4BC9-B215-FE176553DB96}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{642D2115-FEC2-4B47-8907-A9839BF332BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -3293,8 +3373,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                                  OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3303,34 +3383,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3990" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:K78"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3342,16 +3422,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3360,18 +3440,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40360</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3382,16 +3462,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3399,7 +3479,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3412,24 +3492,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3464,7 +3544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3473,7 +3553,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>43.283000000000001</v>
+        <v>41.283000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3488,7 +3568,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>43</v>
       </c>
@@ -3510,7 +3590,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -3528,7 +3608,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -3546,7 +3626,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -3570,7 +3650,7 @@
         <v>43166</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -3592,7 +3672,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>43191</v>
       </c>
@@ -3616,7 +3696,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -3638,7 +3718,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="20" t="s">
         <v>47</v>
@@ -3660,7 +3740,7 @@
         <v>43216</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>43221</v>
       </c>
@@ -3684,7 +3764,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -3706,7 +3786,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>43282</v>
       </c>
@@ -3730,7 +3810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>43313</v>
       </c>
@@ -3754,7 +3834,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
@@ -3776,7 +3856,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>43344</v>
       </c>
@@ -3800,7 +3880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -3822,7 +3902,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -3844,7 +3924,7 @@
         <v>43382</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -3866,7 +3946,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43405</v>
       </c>
@@ -3890,7 +3970,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>43435</v>
       </c>
@@ -3914,7 +3994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>55</v>
       </c>
@@ -3932,7 +4012,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43466</v>
       </c>
@@ -3956,7 +4036,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>43556</v>
       </c>
@@ -3978,7 +4058,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43586</v>
       </c>
@@ -4000,7 +4080,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>43617</v>
       </c>
@@ -4024,7 +4104,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>52</v>
@@ -4046,7 +4126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -4068,7 +4148,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>43647</v>
       </c>
@@ -4086,7 +4166,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>43678</v>
       </c>
@@ -4110,7 +4190,7 @@
         <v>43680</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -4132,7 +4212,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>43739</v>
       </c>
@@ -4156,7 +4236,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>43770</v>
       </c>
@@ -4180,7 +4260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>43800</v>
       </c>
@@ -4204,7 +4284,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="20" t="s">
         <v>48</v>
@@ -4226,7 +4306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>61</v>
       </c>
@@ -4244,7 +4324,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>43831</v>
       </c>
@@ -4268,7 +4348,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="20" t="s">
         <v>63</v>
@@ -4290,7 +4370,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="20" t="s">
         <v>65</v>
@@ -4310,7 +4390,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>43862</v>
       </c>
@@ -4334,7 +4414,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>65</v>
@@ -4354,7 +4434,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>44044</v>
       </c>
@@ -4378,7 +4458,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>44075</v>
       </c>
@@ -4402,7 +4482,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="20" t="s">
         <v>47</v>
@@ -4424,7 +4504,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>44105</v>
       </c>
@@ -4448,7 +4528,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>44166</v>
       </c>
@@ -4472,7 +4552,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>69</v>
       </c>
@@ -4490,7 +4570,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>44228</v>
       </c>
@@ -4514,7 +4594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -4538,7 +4618,7 @@
         <v>44399</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>44440</v>
       </c>
@@ -4562,7 +4642,7 @@
         <v>44416</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>44470</v>
       </c>
@@ -4586,7 +4666,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="20" t="s">
         <v>56</v>
@@ -4606,7 +4686,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20" t="s">
         <v>47</v>
@@ -4628,7 +4708,7 @@
         <v>44473</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="20" t="s">
         <v>51</v>
@@ -4650,7 +4730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <v>44501</v>
       </c>
@@ -4674,7 +4754,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
         <v>74</v>
       </c>
@@ -4692,7 +4772,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>44593</v>
       </c>
@@ -4716,7 +4796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="20" t="s">
         <v>52</v>
@@ -4738,7 +4818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20" t="s">
         <v>56</v>
@@ -4758,7 +4838,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20" t="s">
         <v>47</v>
@@ -4780,7 +4860,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20" t="s">
         <v>52</v>
@@ -4800,7 +4880,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>44652</v>
       </c>
@@ -4824,7 +4904,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>44682</v>
       </c>
@@ -4848,7 +4928,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>44713</v>
       </c>
@@ -4872,7 +4952,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>44743</v>
       </c>
@@ -4896,7 +4976,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="20" t="s">
         <v>70</v>
@@ -4918,7 +4998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>44805</v>
       </c>
@@ -4938,7 +5018,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4956,7 +5036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>44835</v>
       </c>
@@ -4980,7 +5060,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>44866</v>
       </c>
@@ -5004,7 +5084,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>44896</v>
       </c>
@@ -5026,8 +5106,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="38"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="44" t="s">
+        <v>87</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="37"/>
@@ -5042,23 +5124,28 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="38"/>
-      <c r="B80" s="20"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="38">
+        <v>44958</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="37"/>
+      <c r="D80" s="37">
+        <v>2</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G80" s="13"/>
       <c r="H80" s="37"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -5074,7 +5161,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -5090,7 +5177,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -5106,7 +5193,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5122,7 +5209,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="15"/>
       <c r="C85" s="40"/>
@@ -5154,15 +5241,15 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5180,28 +5267,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="48" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="48" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5214,7 +5301,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5243,7 +5330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>76.283000000000001</v>
       </c>
@@ -5267,17 +5354,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="49" t="s">
         <v>28</v>
       </c>
@@ -5298,7 +5385,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="48">
         <v>1</v>
       </c>
@@ -5325,7 +5412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="48">
         <v>2</v>
       </c>
@@ -5351,7 +5438,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="48">
         <v>3</v>
       </c>
@@ -5377,7 +5464,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="48">
         <v>4</v>
       </c>
@@ -5403,7 +5490,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="48">
         <v>5</v>
       </c>
@@ -5429,7 +5516,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="48">
         <v>6</v>
       </c>
@@ -5455,7 +5542,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="48">
         <v>7</v>
       </c>
@@ -5481,7 +5568,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="48">
         <v>8</v>
       </c>
@@ -5507,7 +5594,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="48">
         <v>9</v>
       </c>
@@ -5527,7 +5614,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="48">
         <v>10</v>
       </c>
@@ -5547,7 +5634,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="48">
         <v>11</v>
       </c>
@@ -5567,7 +5654,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="48">
         <v>12</v>
       </c>
@@ -5588,7 +5675,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="48">
         <v>13</v>
       </c>
@@ -5609,7 +5696,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="48">
         <v>14</v>
       </c>
@@ -5630,7 +5717,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="48">
         <v>15</v>
       </c>
@@ -5651,7 +5738,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="48">
         <v>16</v>
       </c>
@@ -5672,7 +5759,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="48">
         <v>17</v>
       </c>
@@ -5693,7 +5780,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="48">
         <v>18</v>
       </c>
@@ -5714,7 +5801,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="48">
         <v>19</v>
       </c>
@@ -5735,7 +5822,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="48">
         <v>20</v>
       </c>
@@ -5756,7 +5843,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="48">
         <v>21</v>
       </c>
@@ -5777,7 +5864,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="48">
         <v>22</v>
       </c>
@@ -5798,7 +5885,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="48">
         <v>23</v>
       </c>
@@ -5819,7 +5906,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="48">
         <v>24</v>
       </c>
@@ -5840,7 +5927,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="48">
         <v>25</v>
       </c>
@@ -5861,7 +5948,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="48">
         <v>26</v>
       </c>
@@ -5882,7 +5969,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="48">
         <v>27</v>
       </c>
@@ -5903,7 +5990,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="48">
         <v>28</v>
       </c>
@@ -5924,7 +6011,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="48">
         <v>29</v>
       </c>
@@ -5945,7 +6032,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="48">
         <v>30</v>
       </c>
@@ -5966,7 +6053,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="48">
         <v>31</v>
       </c>
@@ -5987,7 +6074,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="48">
         <v>32</v>
       </c>
@@ -5996,7 +6083,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="48">
         <v>33</v>
       </c>
@@ -6005,7 +6092,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="48">
         <v>34</v>
       </c>
@@ -6014,7 +6101,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="48">
         <v>35</v>
       </c>
@@ -6023,7 +6110,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="48">
         <v>36</v>
       </c>
@@ -6032,7 +6119,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="48">
         <v>37</v>
       </c>
@@ -6041,7 +6128,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="48">
         <v>38</v>
       </c>
@@ -6050,7 +6137,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="48">
         <v>39</v>
       </c>
@@ -6059,7 +6146,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="48">
         <v>40</v>
       </c>
@@ -6068,7 +6155,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="48">
         <v>41</v>
       </c>
@@ -6077,7 +6164,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="48">
         <v>42</v>
       </c>
@@ -6086,7 +6173,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="48">
         <v>43</v>
       </c>
@@ -6095,7 +6182,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="48">
         <v>44</v>
       </c>
@@ -6104,7 +6191,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="48">
         <v>45</v>
       </c>
@@ -6113,7 +6200,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="48">
         <v>46</v>
       </c>
@@ -6122,7 +6209,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="48">
         <v>47</v>
       </c>
@@ -6131,7 +6218,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="48">
         <v>48</v>
       </c>
@@ -6140,7 +6227,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="48">
         <v>49</v>
       </c>
@@ -6149,7 +6236,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="48">
         <v>50</v>
       </c>
@@ -6158,7 +6245,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="48">
         <v>51</v>
       </c>
@@ -6167,7 +6254,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="48">
         <v>52</v>
       </c>
@@ -6176,7 +6263,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="48">
         <v>53</v>
       </c>
@@ -6185,7 +6272,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="48">
         <v>54</v>
       </c>
@@ -6194,7 +6281,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="48">
         <v>55</v>
       </c>
@@ -6203,7 +6290,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="48">
         <v>56</v>
       </c>
@@ -6212,7 +6299,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="48">
         <v>57</v>
       </c>
@@ -6221,7 +6308,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="48">
         <v>58</v>
       </c>
@@ -6230,7 +6317,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="48">
         <v>59</v>
       </c>
@@ -6239,7 +6326,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="48">
         <v>60</v>
       </c>
@@ -6248,7 +6335,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/ZAFRA, REYNANTE.xlsx
+++ b/ZAFRA, REYNANTE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -702,17 +702,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -722,6 +719,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1614,7 +1614,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,14 +1644,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1662,16 +1662,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40360</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1684,14 +1684,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1717,18 +1717,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.5</v>
+        <v>54.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1785,7 +1785,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>63.5</v>
+        <v>64.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3295,20 +3295,28 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="A83" s="38">
+        <v>44986</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="37"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="37"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="45">
+        <v>45016</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
@@ -3344,17 +3352,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3422,14 +3430,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3440,16 +3448,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40360</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3462,14 +3470,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3495,18 +3503,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/ZAFRA, REYNANTE.xlsx
+++ b/ZAFRA, REYNANTE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>2/9,10/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/3,4/2023</t>
   </si>
 </sst>
 </file>
@@ -702,14 +708,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -719,9 +728,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1612,9 +1618,9 @@
   <dimension ref="A2:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,14 +1650,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1662,16 +1668,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40360</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1684,14 +1690,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1717,18 +1723,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1775,7 +1781,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>54.75</v>
+        <v>56</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1785,7 +1791,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>64.75</v>
+        <v>66</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3319,15 +3325,19 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
+      <c r="A84" s="38">
+        <v>45017</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="37"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="37"/>
       <c r="I84" s="9"/>
@@ -3335,8 +3345,12 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
-      <c r="B85" s="15"/>
+      <c r="A85" s="39">
+        <v>45047</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="C85" s="40"/>
       <c r="D85" s="41"/>
       <c r="E85" s="9"/>
@@ -3348,21 +3362,23 @@
       <c r="H85" s="41"/>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="15"/>
+      <c r="K85" s="15" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3430,14 +3446,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3448,16 +3464,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40360</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3470,14 +3486,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3503,18 +3519,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/ZAFRA, REYNANTE.xlsx
+++ b/ZAFRA, REYNANTE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>5/3,4/2023</t>
+  </si>
+  <si>
+    <t>5/17-19/2023</t>
+  </si>
+  <si>
+    <t>TICC</t>
   </si>
 </sst>
 </file>
@@ -554,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,6 +711,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1256,7 +1265,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K85" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K92" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1615,12 +1624,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K85"/>
+  <dimension ref="A2:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <pane ySplit="3690" topLeftCell="A73"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,62 +1651,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="58">
         <v>40360</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1723,18 +1734,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1791,7 +1802,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3365,6 +3376,130 @@
       <c r="K85" s="15" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="37">
+        <v>1</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="45">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="37">
+        <v>3</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="38"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="37"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="20"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="38"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="37"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="20"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="38"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="37"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="20"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="37"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="20"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="39"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="40" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="41"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3438,62 +3573,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="58">
         <v>40360</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3519,18 +3654,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5313,17 +5448,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -5402,12 +5537,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="51"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="48">

--- a/ZAFRA, REYNANTE.xlsx
+++ b/ZAFRA, REYNANTE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0847A9F-1038-47B2-8350-5BB2DADAC097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -323,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -717,17 +718,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -737,6 +735,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1248,7 +1249,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1265,25 +1266,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K92" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K92" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1295,25 +1296,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K85" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K85" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1620,34 +1621,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73"/>
+      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1659,16 +1660,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1677,18 +1678,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>40360</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1699,18 +1700,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1718,7 +1719,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1731,24 +1732,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1792,7 +1793,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56</v>
+        <v>57.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1802,12 +1803,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>62</v>
+        <v>63.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>43</v>
       </c>
@@ -1829,7 +1830,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1875,7 +1876,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1895,7 +1896,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>43191</v>
       </c>
@@ -1915,7 +1916,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="46"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>43221</v>
       </c>
@@ -1935,7 +1936,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="45"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>43252</v>
       </c>
@@ -1955,7 +1956,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>43282</v>
       </c>
@@ -1975,7 +1976,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>43313</v>
       </c>
@@ -1995,7 +1996,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="45"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>43344</v>
       </c>
@@ -2015,7 +2016,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>43374</v>
       </c>
@@ -2035,7 +2036,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>43405</v>
       </c>
@@ -2055,7 +2056,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="45"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -2075,7 +2076,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="47"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>55</v>
       </c>
@@ -2093,7 +2094,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>43466</v>
       </c>
@@ -2113,7 +2114,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>43497</v>
       </c>
@@ -2133,7 +2134,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>43525</v>
       </c>
@@ -2153,7 +2154,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>43556</v>
       </c>
@@ -2173,7 +2174,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="45"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>43586</v>
       </c>
@@ -2193,7 +2194,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>43617</v>
       </c>
@@ -2213,7 +2214,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="45"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>43647</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>43678</v>
       </c>
@@ -2253,7 +2254,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="45"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>43709</v>
       </c>
@@ -2273,7 +2274,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>43739</v>
       </c>
@@ -2293,7 +2294,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="45"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>43770</v>
       </c>
@@ -2313,7 +2314,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>43800</v>
       </c>
@@ -2337,7 +2338,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="45"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>61</v>
       </c>
@@ -2355,7 +2356,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>43831</v>
       </c>
@@ -2375,7 +2376,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>43862</v>
       </c>
@@ -2395,7 +2396,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="45"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>43891</v>
       </c>
@@ -2415,7 +2416,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>43922</v>
       </c>
@@ -2435,7 +2436,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>43952</v>
       </c>
@@ -2455,7 +2456,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>43983</v>
       </c>
@@ -2475,7 +2476,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>44013</v>
       </c>
@@ -2495,7 +2496,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>44044</v>
       </c>
@@ -2515,7 +2516,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="45"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>44075</v>
       </c>
@@ -2535,7 +2536,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>44105</v>
       </c>
@@ -2555,7 +2556,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="45"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>44136</v>
       </c>
@@ -2575,7 +2576,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>44166</v>
       </c>
@@ -2599,7 +2600,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>69</v>
       </c>
@@ -2617,7 +2618,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>44197</v>
       </c>
@@ -2637,7 +2638,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>44228</v>
       </c>
@@ -2657,7 +2658,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>44256</v>
       </c>
@@ -2677,7 +2678,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>44287</v>
       </c>
@@ -2697,7 +2698,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>44317</v>
       </c>
@@ -2717,7 +2718,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>44348</v>
       </c>
@@ -2737,7 +2738,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -2757,7 +2758,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="45"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>44409</v>
       </c>
@@ -2777,7 +2778,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>44440</v>
       </c>
@@ -2797,7 +2798,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="45"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>44470</v>
       </c>
@@ -2817,7 +2818,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="45"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>44501</v>
       </c>
@@ -2837,7 +2838,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="45"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>44531</v>
       </c>
@@ -2861,7 +2862,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
         <v>74</v>
       </c>
@@ -2879,7 +2880,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>44562</v>
       </c>
@@ -2899,7 +2900,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>44593</v>
       </c>
@@ -2919,7 +2920,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>44621</v>
       </c>
@@ -2939,7 +2940,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>44652</v>
       </c>
@@ -2959,7 +2960,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="45"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>44682</v>
       </c>
@@ -2979,7 +2980,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="45"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>44713</v>
       </c>
@@ -2999,7 +3000,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>44743</v>
       </c>
@@ -3019,7 +3020,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>44774</v>
       </c>
@@ -3039,7 +3040,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>44805</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="20" t="s">
         <v>52</v>
@@ -3087,7 +3088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>44835</v>
       </c>
@@ -3107,7 +3108,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>44866</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>44896</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38"/>
       <c r="B76" s="20" t="s">
         <v>52</v>
@@ -3181,7 +3182,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38"/>
       <c r="B77" s="20" t="s">
         <v>47</v>
@@ -3203,7 +3204,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38"/>
       <c r="B78" s="20" t="s">
         <v>47</v>
@@ -3225,7 +3226,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="44" t="s">
         <v>87</v>
       </c>
@@ -3243,7 +3244,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
         <v>44927</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38"/>
       <c r="B81" s="20" t="s">
         <v>52</v>
@@ -3291,7 +3292,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
         <v>44958</v>
       </c>
@@ -3311,7 +3312,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38">
         <v>44986</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
         <v>45017</v>
       </c>
@@ -3355,20 +3356,22 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39">
         <v>45047</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="40"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="41"/>
       <c r="E85" s="9"/>
       <c r="F85" s="15"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="41"/>
       <c r="I85" s="9"/>
@@ -3377,7 +3380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38"/>
       <c r="B86" s="20" t="s">
         <v>47</v>
@@ -3399,7 +3402,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38"/>
       <c r="B87" s="20" t="s">
         <v>70</v>
@@ -3421,7 +3424,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3437,7 +3440,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3453,7 +3456,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3469,7 +3472,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3485,7 +3488,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39"/>
       <c r="B92" s="15"/>
       <c r="C92" s="40"/>
@@ -3503,23 +3506,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3542,34 +3545,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3984" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
       <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3581,16 +3584,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3599,18 +3602,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>40360</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3621,16 +3624,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3638,7 +3641,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3651,24 +3654,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3727,7 +3730,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>43</v>
       </c>
@@ -3749,7 +3752,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -3767,7 +3770,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -3785,7 +3788,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>43166</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -3831,7 +3834,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>43191</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -3877,7 +3880,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="20" t="s">
         <v>47</v>
@@ -3899,7 +3902,7 @@
         <v>43216</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>43221</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -3945,7 +3948,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>43282</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>43313</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
@@ -4015,7 +4018,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>43344</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -4061,7 +4064,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -4083,7 +4086,7 @@
         <v>43382</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -4105,7 +4108,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>43405</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>43435</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>55</v>
       </c>
@@ -4171,7 +4174,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>43466</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>43556</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>43586</v>
       </c>
@@ -4239,7 +4242,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>43617</v>
       </c>
@@ -4263,7 +4266,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>52</v>
@@ -4285,7 +4288,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -4307,7 +4310,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>43647</v>
       </c>
@@ -4325,7 +4328,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>43678</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>43680</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -4371,7 +4374,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>43739</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>43770</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>43800</v>
       </c>
@@ -4443,7 +4446,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38"/>
       <c r="B42" s="20" t="s">
         <v>48</v>
@@ -4465,7 +4468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
         <v>61</v>
       </c>
@@ -4483,7 +4486,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>43831</v>
       </c>
@@ -4507,7 +4510,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="20" t="s">
         <v>63</v>
@@ -4529,7 +4532,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="20" t="s">
         <v>65</v>
@@ -4549,7 +4552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>43862</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>65</v>
@@ -4593,7 +4596,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>44044</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>44075</v>
       </c>
@@ -4641,7 +4644,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="B51" s="20" t="s">
         <v>47</v>
@@ -4663,7 +4666,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>44105</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>44166</v>
       </c>
@@ -4711,7 +4714,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="44" t="s">
         <v>69</v>
       </c>
@@ -4729,7 +4732,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>44228</v>
       </c>
@@ -4753,7 +4756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -4777,7 +4780,7 @@
         <v>44399</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>44440</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>44416</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>44470</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="B59" s="20" t="s">
         <v>56</v>
@@ -4845,7 +4848,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="20" t="s">
         <v>47</v>
@@ -4867,7 +4870,7 @@
         <v>44473</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="20" t="s">
         <v>51</v>
@@ -4889,7 +4892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38">
         <v>44501</v>
       </c>
@@ -4913,7 +4916,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="44" t="s">
         <v>74</v>
       </c>
@@ -4931,7 +4934,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>44593</v>
       </c>
@@ -4955,7 +4958,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
       <c r="B65" s="20" t="s">
         <v>52</v>
@@ -4977,7 +4980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
       <c r="B66" s="20" t="s">
         <v>56</v>
@@ -4997,7 +5000,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="20" t="s">
         <v>47</v>
@@ -5019,7 +5022,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
       <c r="B68" s="20" t="s">
         <v>52</v>
@@ -5039,7 +5042,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>44652</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>44682</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>44713</v>
       </c>
@@ -5111,7 +5114,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>44743</v>
       </c>
@@ -5135,7 +5138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
       <c r="B73" s="20" t="s">
         <v>70</v>
@@ -5157,7 +5160,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>44805</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5195,7 +5198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>44835</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
         <v>44866</v>
       </c>
@@ -5243,7 +5246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38">
         <v>44896</v>
       </c>
@@ -5265,7 +5268,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="44" t="s">
         <v>87</v>
       </c>
@@ -5283,7 +5286,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
         <v>44958</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -5320,7 +5323,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -5336,7 +5339,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -5352,7 +5355,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5368,7 +5371,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39"/>
       <c r="B85" s="15"/>
       <c r="C85" s="40"/>
@@ -5400,10 +5403,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5426,28 +5429,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="48" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="48" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5460,7 +5463,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>76.283000000000001</v>
       </c>
@@ -5513,17 +5516,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="49" t="s">
         <v>28</v>
       </c>
@@ -5544,7 +5547,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="48">
         <v>1</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="48">
         <v>2</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="48">
         <v>3</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="48">
         <v>4</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="48">
         <v>5</v>
       </c>
@@ -5675,7 +5678,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="48">
         <v>6</v>
       </c>
@@ -5701,7 +5704,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="48">
         <v>7</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="48">
         <v>8</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="48">
         <v>9</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="48">
         <v>10</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="48">
         <v>11</v>
       </c>
@@ -5813,7 +5816,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="48">
         <v>12</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="48">
         <v>13</v>
       </c>
@@ -5855,7 +5858,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="48">
         <v>14</v>
       </c>
@@ -5876,7 +5879,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="48">
         <v>15</v>
       </c>
@@ -5897,7 +5900,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="48">
         <v>16</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="48">
         <v>17</v>
       </c>
@@ -5939,7 +5942,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="48">
         <v>18</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="48">
         <v>19</v>
       </c>
@@ -5981,7 +5984,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="48">
         <v>20</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="48">
         <v>21</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="48">
         <v>22</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="48">
         <v>23</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="48">
         <v>24</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="48">
         <v>25</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="48">
         <v>26</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="48">
         <v>27</v>
       </c>
@@ -6149,7 +6152,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="48">
         <v>28</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="48">
         <v>29</v>
       </c>
@@ -6191,7 +6194,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="48">
         <v>30</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="48">
         <v>31</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="48">
         <v>32</v>
       </c>
@@ -6242,7 +6245,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="48">
         <v>33</v>
       </c>
@@ -6251,7 +6254,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="48">
         <v>34</v>
       </c>
@@ -6260,7 +6263,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="48">
         <v>35</v>
       </c>
@@ -6269,7 +6272,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="48">
         <v>36</v>
       </c>
@@ -6278,7 +6281,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="48">
         <v>37</v>
       </c>
@@ -6287,7 +6290,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="48">
         <v>38</v>
       </c>
@@ -6296,7 +6299,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="48">
         <v>39</v>
       </c>
@@ -6305,7 +6308,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="48">
         <v>40</v>
       </c>
@@ -6314,7 +6317,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="48">
         <v>41</v>
       </c>
@@ -6323,7 +6326,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="48">
         <v>42</v>
       </c>
@@ -6332,7 +6335,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="48">
         <v>43</v>
       </c>
@@ -6341,7 +6344,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="48">
         <v>44</v>
       </c>
@@ -6350,7 +6353,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="48">
         <v>45</v>
       </c>
@@ -6359,7 +6362,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="48">
         <v>46</v>
       </c>
@@ -6368,7 +6371,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="48">
         <v>47</v>
       </c>
@@ -6377,7 +6380,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="48">
         <v>48</v>
       </c>
@@ -6386,7 +6389,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="48">
         <v>49</v>
       </c>
@@ -6395,7 +6398,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="48">
         <v>50</v>
       </c>
@@ -6404,7 +6407,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="48">
         <v>51</v>
       </c>
@@ -6413,7 +6416,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="48">
         <v>52</v>
       </c>
@@ -6422,7 +6425,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="48">
         <v>53</v>
       </c>
@@ -6431,7 +6434,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="48">
         <v>54</v>
       </c>
@@ -6440,7 +6443,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="48">
         <v>55</v>
       </c>
@@ -6449,7 +6452,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="48">
         <v>56</v>
       </c>
@@ -6458,7 +6461,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="48">
         <v>57</v>
       </c>
@@ -6467,7 +6470,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="48">
         <v>58</v>
       </c>
@@ -6476,7 +6479,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="48">
         <v>59</v>
       </c>
@@ -6485,7 +6488,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="48">
         <v>60</v>
       </c>
@@ -6494,7 +6497,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/ZAFRA, REYNANTE.xlsx
+++ b/ZAFRA, REYNANTE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0847A9F-1038-47B2-8350-5BB2DADAC097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -319,12 +318,18 @@
   </si>
   <si>
     <t>TICC</t>
+  </si>
+  <si>
+    <t>7/3-7/2023</t>
+  </si>
+  <si>
+    <t>SL(5-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -718,14 +723,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -735,9 +743,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1249,7 +1254,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1266,25 +1271,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K92" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K92" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1296,25 +1301,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K85" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K85" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1621,34 +1626,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1660,16 +1665,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1678,18 +1683,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="58">
         <v>40360</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1700,18 +1705,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1719,7 +1724,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1732,24 +1737,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1793,7 +1798,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.25</v>
+        <v>58.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1803,12 +1808,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>63.25</v>
+        <v>59.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>43</v>
       </c>
@@ -1830,7 +1835,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1856,7 +1861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1876,7 +1881,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1896,7 +1901,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>43191</v>
       </c>
@@ -1916,7 +1921,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="46"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>43221</v>
       </c>
@@ -1936,7 +1941,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="45"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>43252</v>
       </c>
@@ -1956,7 +1961,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>43282</v>
       </c>
@@ -1976,7 +1981,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>43313</v>
       </c>
@@ -1996,7 +2001,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="45"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>43344</v>
       </c>
@@ -2016,7 +2021,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>43374</v>
       </c>
@@ -2036,7 +2041,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>43405</v>
       </c>
@@ -2056,7 +2061,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="45"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -2076,7 +2081,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="47"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>55</v>
       </c>
@@ -2094,7 +2099,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>43466</v>
       </c>
@@ -2114,7 +2119,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>43497</v>
       </c>
@@ -2134,7 +2139,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>43525</v>
       </c>
@@ -2154,7 +2159,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43556</v>
       </c>
@@ -2174,7 +2179,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="45"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>43586</v>
       </c>
@@ -2194,7 +2199,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>43617</v>
       </c>
@@ -2214,7 +2219,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="45"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43647</v>
       </c>
@@ -2234,7 +2239,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>43678</v>
       </c>
@@ -2254,7 +2259,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="45"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43709</v>
       </c>
@@ -2274,7 +2279,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>43739</v>
       </c>
@@ -2294,7 +2299,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="45"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>43770</v>
       </c>
@@ -2314,7 +2319,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>43800</v>
       </c>
@@ -2338,7 +2343,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="45"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>61</v>
       </c>
@@ -2356,7 +2361,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>43831</v>
       </c>
@@ -2376,7 +2381,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>43862</v>
       </c>
@@ -2396,7 +2401,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="45"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>43891</v>
       </c>
@@ -2416,7 +2421,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>43922</v>
       </c>
@@ -2436,7 +2441,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>43952</v>
       </c>
@@ -2456,7 +2461,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>43983</v>
       </c>
@@ -2476,7 +2481,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>44013</v>
       </c>
@@ -2496,7 +2501,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>44044</v>
       </c>
@@ -2516,7 +2521,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="45"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>44075</v>
       </c>
@@ -2536,7 +2541,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>44105</v>
       </c>
@@ -2556,7 +2561,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="45"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>44136</v>
       </c>
@@ -2576,7 +2581,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>44166</v>
       </c>
@@ -2600,7 +2605,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>69</v>
       </c>
@@ -2618,7 +2623,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>44197</v>
       </c>
@@ -2638,7 +2643,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>44228</v>
       </c>
@@ -2658,7 +2663,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>44256</v>
       </c>
@@ -2678,7 +2683,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>44287</v>
       </c>
@@ -2698,7 +2703,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>44317</v>
       </c>
@@ -2718,7 +2723,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>44348</v>
       </c>
@@ -2738,7 +2743,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -2758,7 +2763,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="45"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>44409</v>
       </c>
@@ -2778,7 +2783,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>44440</v>
       </c>
@@ -2798,7 +2803,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="45"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>44470</v>
       </c>
@@ -2818,7 +2823,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="45"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>44501</v>
       </c>
@@ -2838,7 +2843,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="45"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>44531</v>
       </c>
@@ -2862,7 +2867,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
         <v>74</v>
       </c>
@@ -2880,7 +2885,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>44562</v>
       </c>
@@ -2900,7 +2905,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>44593</v>
       </c>
@@ -2920,7 +2925,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>44621</v>
       </c>
@@ -2940,7 +2945,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>44652</v>
       </c>
@@ -2960,7 +2965,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="45"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <v>44682</v>
       </c>
@@ -2980,7 +2985,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="45"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>44713</v>
       </c>
@@ -3000,7 +3005,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>44743</v>
       </c>
@@ -3020,7 +3025,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>44774</v>
       </c>
@@ -3040,7 +3045,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>44805</v>
       </c>
@@ -3066,7 +3071,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="20" t="s">
         <v>52</v>
@@ -3088,7 +3093,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>44835</v>
       </c>
@@ -3108,7 +3113,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>44866</v>
       </c>
@@ -3134,7 +3139,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>44896</v>
       </c>
@@ -3160,7 +3165,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="20" t="s">
         <v>52</v>
@@ -3182,7 +3187,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="20" t="s">
         <v>47</v>
@@ -3204,7 +3209,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
       <c r="B78" s="20" t="s">
         <v>47</v>
@@ -3226,7 +3231,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
         <v>87</v>
       </c>
@@ -3244,7 +3249,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
         <v>44927</v>
       </c>
@@ -3270,7 +3275,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="20" t="s">
         <v>52</v>
@@ -3292,7 +3297,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>44958</v>
       </c>
@@ -3312,7 +3317,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>44986</v>
       </c>
@@ -3336,7 +3341,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>45017</v>
       </c>
@@ -3356,7 +3361,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <v>45047</v>
       </c>
@@ -3380,7 +3385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
       <c r="B86" s="20" t="s">
         <v>47</v>
@@ -3402,7 +3407,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
       <c r="B87" s="20" t="s">
         <v>70</v>
@@ -3424,25 +3429,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="38"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="38">
+        <v>45078</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="37"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="37"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="38"/>
-      <c r="B89" s="20"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="38">
+        <v>45108</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="37"/>
       <c r="E89" s="9"/>
@@ -3451,12 +3464,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="37"/>
+      <c r="H89" s="37">
+        <v>5</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3472,7 +3489,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3488,7 +3505,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="15"/>
       <c r="C92" s="40"/>
@@ -3506,23 +3523,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3545,34 +3562,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
       <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3584,16 +3601,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3602,18 +3619,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="58">
         <v>40360</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3624,16 +3641,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3641,7 +3658,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3654,24 +3671,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3730,7 +3747,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>43</v>
       </c>
@@ -3752,7 +3769,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -3770,7 +3787,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -3788,7 +3805,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -3812,7 +3829,7 @@
         <v>43166</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -3834,7 +3851,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>43191</v>
       </c>
@@ -3858,7 +3875,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -3880,7 +3897,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="20" t="s">
         <v>47</v>
@@ -3902,7 +3919,7 @@
         <v>43216</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>43221</v>
       </c>
@@ -3926,7 +3943,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -3948,7 +3965,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>43282</v>
       </c>
@@ -3972,7 +3989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>43313</v>
       </c>
@@ -3996,7 +4013,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>46</v>
@@ -4018,7 +4035,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>43344</v>
       </c>
@@ -4042,7 +4059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -4064,7 +4081,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -4086,7 +4103,7 @@
         <v>43382</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -4108,7 +4125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43405</v>
       </c>
@@ -4132,7 +4149,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>43435</v>
       </c>
@@ -4156,7 +4173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>55</v>
       </c>
@@ -4174,7 +4191,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43466</v>
       </c>
@@ -4198,7 +4215,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>43556</v>
       </c>
@@ -4220,7 +4237,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43586</v>
       </c>
@@ -4242,7 +4259,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>43617</v>
       </c>
@@ -4266,7 +4283,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>52</v>
@@ -4288,7 +4305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -4310,7 +4327,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>43647</v>
       </c>
@@ -4328,7 +4345,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>43678</v>
       </c>
@@ -4352,7 +4369,7 @@
         <v>43680</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -4374,7 +4391,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>43739</v>
       </c>
@@ -4398,7 +4415,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>43770</v>
       </c>
@@ -4422,7 +4439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>43800</v>
       </c>
@@ -4446,7 +4463,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="20" t="s">
         <v>48</v>
@@ -4468,7 +4485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>61</v>
       </c>
@@ -4486,7 +4503,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>43831</v>
       </c>
@@ -4510,7 +4527,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="20" t="s">
         <v>63</v>
@@ -4532,7 +4549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="20" t="s">
         <v>65</v>
@@ -4552,7 +4569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>43862</v>
       </c>
@@ -4576,7 +4593,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>65</v>
@@ -4596,7 +4613,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>44044</v>
       </c>
@@ -4620,7 +4637,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>44075</v>
       </c>
@@ -4644,7 +4661,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="20" t="s">
         <v>47</v>
@@ -4666,7 +4683,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>44105</v>
       </c>
@@ -4690,7 +4707,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>44166</v>
       </c>
@@ -4714,7 +4731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>69</v>
       </c>
@@ -4732,7 +4749,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>44228</v>
       </c>
@@ -4756,7 +4773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -4780,7 +4797,7 @@
         <v>44399</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>44440</v>
       </c>
@@ -4804,7 +4821,7 @@
         <v>44416</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>44470</v>
       </c>
@@ -4828,7 +4845,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="20" t="s">
         <v>56</v>
@@ -4848,7 +4865,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20" t="s">
         <v>47</v>
@@ -4870,7 +4887,7 @@
         <v>44473</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="20" t="s">
         <v>51</v>
@@ -4892,7 +4909,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <v>44501</v>
       </c>
@@ -4916,7 +4933,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
         <v>74</v>
       </c>
@@ -4934,7 +4951,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>44593</v>
       </c>
@@ -4958,7 +4975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="20" t="s">
         <v>52</v>
@@ -4980,7 +4997,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20" t="s">
         <v>56</v>
@@ -5000,7 +5017,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20" t="s">
         <v>47</v>
@@ -5022,7 +5039,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20" t="s">
         <v>52</v>
@@ -5042,7 +5059,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>44652</v>
       </c>
@@ -5066,7 +5083,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>44682</v>
       </c>
@@ -5090,7 +5107,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>44713</v>
       </c>
@@ -5114,7 +5131,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>44743</v>
       </c>
@@ -5138,7 +5155,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="20" t="s">
         <v>70</v>
@@ -5160,7 +5177,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>44805</v>
       </c>
@@ -5180,7 +5197,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5198,7 +5215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>44835</v>
       </c>
@@ -5222,7 +5239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>44866</v>
       </c>
@@ -5246,7 +5263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>44896</v>
       </c>
@@ -5268,7 +5285,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
         <v>87</v>
       </c>
@@ -5286,7 +5303,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
         <v>44958</v>
       </c>
@@ -5307,7 +5324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -5323,7 +5340,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -5339,7 +5356,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -5355,7 +5372,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5371,7 +5388,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="15"/>
       <c r="C85" s="40"/>
@@ -5403,10 +5420,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5429,28 +5446,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="48" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="48" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5463,7 +5480,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5492,7 +5509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>76.283000000000001</v>
       </c>
@@ -5516,17 +5533,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="49" t="s">
         <v>28</v>
       </c>
@@ -5547,7 +5564,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="48">
         <v>1</v>
       </c>
@@ -5574,7 +5591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="48">
         <v>2</v>
       </c>
@@ -5600,7 +5617,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="48">
         <v>3</v>
       </c>
@@ -5626,7 +5643,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="48">
         <v>4</v>
       </c>
@@ -5652,7 +5669,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="48">
         <v>5</v>
       </c>
@@ -5678,7 +5695,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="48">
         <v>6</v>
       </c>
@@ -5704,7 +5721,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="48">
         <v>7</v>
       </c>
@@ -5730,7 +5747,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="48">
         <v>8</v>
       </c>
@@ -5756,7 +5773,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="48">
         <v>9</v>
       </c>
@@ -5776,7 +5793,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="48">
         <v>10</v>
       </c>
@@ -5796,7 +5813,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="48">
         <v>11</v>
       </c>
@@ -5816,7 +5833,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="48">
         <v>12</v>
       </c>
@@ -5837,7 +5854,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="48">
         <v>13</v>
       </c>
@@ -5858,7 +5875,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="48">
         <v>14</v>
       </c>
@@ -5879,7 +5896,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="48">
         <v>15</v>
       </c>
@@ -5900,7 +5917,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="48">
         <v>16</v>
       </c>
@@ -5921,7 +5938,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="48">
         <v>17</v>
       </c>
@@ -5942,7 +5959,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="48">
         <v>18</v>
       </c>
@@ -5963,7 +5980,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="48">
         <v>19</v>
       </c>
@@ -5984,7 +6001,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="48">
         <v>20</v>
       </c>
@@ -6005,7 +6022,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="48">
         <v>21</v>
       </c>
@@ -6026,7 +6043,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="48">
         <v>22</v>
       </c>
@@ -6047,7 +6064,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="48">
         <v>23</v>
       </c>
@@ -6068,7 +6085,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="48">
         <v>24</v>
       </c>
@@ -6089,7 +6106,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="48">
         <v>25</v>
       </c>
@@ -6110,7 +6127,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="48">
         <v>26</v>
       </c>
@@ -6131,7 +6148,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="48">
         <v>27</v>
       </c>
@@ -6152,7 +6169,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="48">
         <v>28</v>
       </c>
@@ -6173,7 +6190,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="48">
         <v>29</v>
       </c>
@@ -6194,7 +6211,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="48">
         <v>30</v>
       </c>
@@ -6215,7 +6232,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="48">
         <v>31</v>
       </c>
@@ -6236,7 +6253,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="48">
         <v>32</v>
       </c>
@@ -6245,7 +6262,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="48">
         <v>33</v>
       </c>
@@ -6254,7 +6271,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="48">
         <v>34</v>
       </c>
@@ -6263,7 +6280,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="48">
         <v>35</v>
       </c>
@@ -6272,7 +6289,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="48">
         <v>36</v>
       </c>
@@ -6281,7 +6298,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="48">
         <v>37</v>
       </c>
@@ -6290,7 +6307,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="48">
         <v>38</v>
       </c>
@@ -6299,7 +6316,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="48">
         <v>39</v>
       </c>
@@ -6308,7 +6325,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="48">
         <v>40</v>
       </c>
@@ -6317,7 +6334,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="48">
         <v>41</v>
       </c>
@@ -6326,7 +6343,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="48">
         <v>42</v>
       </c>
@@ -6335,7 +6352,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="48">
         <v>43</v>
       </c>
@@ -6344,7 +6361,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="48">
         <v>44</v>
       </c>
@@ -6353,7 +6370,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="48">
         <v>45</v>
       </c>
@@ -6362,7 +6379,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="48">
         <v>46</v>
       </c>
@@ -6371,7 +6388,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="48">
         <v>47</v>
       </c>
@@ -6380,7 +6397,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="48">
         <v>48</v>
       </c>
@@ -6389,7 +6406,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="48">
         <v>49</v>
       </c>
@@ -6398,7 +6415,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="48">
         <v>50</v>
       </c>
@@ -6407,7 +6424,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="48">
         <v>51</v>
       </c>
@@ -6416,7 +6433,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="48">
         <v>52</v>
       </c>
@@ -6425,7 +6442,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="48">
         <v>53</v>
       </c>
@@ -6434,7 +6451,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="48">
         <v>54</v>
       </c>
@@ -6443,7 +6460,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="48">
         <v>55</v>
       </c>
@@ -6452,7 +6469,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="48">
         <v>56</v>
       </c>
@@ -6461,7 +6478,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="48">
         <v>57</v>
       </c>
@@ -6470,7 +6487,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="48">
         <v>58</v>
       </c>
@@ -6479,7 +6496,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="48">
         <v>59</v>
       </c>
@@ -6488,7 +6505,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="48">
         <v>60</v>
       </c>
@@ -6497,7 +6514,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/ZAFRA, REYNANTE.xlsx
+++ b/ZAFRA, REYNANTE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>9/7,8/2023</t>
   </si>
 </sst>
 </file>
@@ -1632,10 +1635,10 @@
   </sheetPr>
   <dimension ref="A2:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1801,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.5</v>
+        <v>61</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1808,7 +1811,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>59.5</v>
+        <v>60</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3456,13 +3459,15 @@
       <c r="B89" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="37"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="37">
         <v>5</v>
@@ -3474,15 +3479,19 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
+      <c r="A90" s="38">
+        <v>45139</v>
+      </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="37"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="37"/>
       <c r="I90" s="9"/>
@@ -3490,8 +3499,12 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="38">
+        <v>45170</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="37"/>
       <c r="E91" s="9"/>
@@ -3500,10 +3513,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="37"/>
+      <c r="H91" s="37">
+        <v>2</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
@@ -3568,10 +3585,10 @@
   </sheetPr>
   <dimension ref="A2:K85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3990" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3732,7 +3749,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>41.283000000000001</v>
+        <v>40.283000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5325,10 +5342,16 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="38">
+        <v>45170</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="37"/>
+      <c r="D81" s="37">
+        <v>1</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
